--- a/BAB 4/DFD/Procesess.xlsx
+++ b/BAB 4/DFD/Procesess.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
